--- a/dragonflye_assemblies/dragonflye-assemblies-tophits.xlsx
+++ b/dragonflye_assemblies/dragonflye-assemblies-tophits.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezl01/Desktop/projects/sian_owen/phage2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezl01/Desktop/projects/sian_owen/phage2025/dragonflye_assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DC72DC0-4B54-E343-BD91-3C9F52D6BE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478A4123-7C32-524D-BBF7-A6D91AFC6A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34560" yWindow="500" windowWidth="31920" windowHeight="18700" xr2:uid="{B72C027A-26C8-224E-A9C3-B22E8B0C6EA2}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>barcode05_contig00001</t>
   </si>
@@ -104,13 +104,67 @@
   </si>
   <si>
     <t>barcode15_contig00001</t>
+  </si>
+  <si>
+    <t>Green = unique phage not found in other barcodes</t>
+  </si>
+  <si>
+    <t>barcode12_contig00001 is duplicated</t>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>subject_title</t>
+  </si>
+  <si>
+    <t>percent_identity</t>
+  </si>
+  <si>
+    <t>query_coverage</t>
+  </si>
+  <si>
+    <t>query_length</t>
+  </si>
+  <si>
+    <t>subject_length</t>
+  </si>
+  <si>
+    <t>alignment_length</t>
+  </si>
+  <si>
+    <t>mismatch</t>
+  </si>
+  <si>
+    <t>gap_open</t>
+  </si>
+  <si>
+    <t>qstart</t>
+  </si>
+  <si>
+    <t>qend</t>
+  </si>
+  <si>
+    <t>sstart</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>evalue</t>
+  </si>
+  <si>
+    <t>bitscore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -267,29 +321,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF0070C0"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9" tint="-0.499984740745262"/>
+      <color theme="6"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
@@ -635,7 +705,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -645,6 +715,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1020,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EB3945-B702-C24A-9901-E45BF9E93CB9}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1031,712 +1104,776 @@
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D2" s="7">
         <v>87.76</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E2" s="7">
         <v>49</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F2" s="7">
         <v>47633</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G2" s="7">
         <v>47647</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H2" s="7">
         <v>5196</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I2" s="7">
         <v>608</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J2" s="7">
         <v>23</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K2" s="7">
         <v>17130</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L2" s="7">
         <v>22313</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M2" s="7">
         <v>25508</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N2" s="7">
         <v>20329</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O2" s="7">
         <v>0</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P2" s="7">
         <v>6047</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D3" s="8">
         <v>97.534000000000006</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E3" s="8">
         <v>96</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F3" s="8">
         <v>145722</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G3" s="8">
         <v>149506</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H3" s="8">
         <v>50652</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I3" s="8">
         <v>1135</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J3" s="8">
         <v>61</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K3" s="8">
         <v>90953</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L3" s="8">
         <v>141535</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M3" s="8">
         <v>148345</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N3" s="8">
         <v>97739</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O3" s="8">
         <v>0</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P3" s="8">
         <v>86512</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="7">
         <v>87.778999999999996</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="7">
         <v>50</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="7">
         <v>46942</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G4" s="7">
         <v>47647</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H4" s="7">
         <v>5196</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I4" s="7">
         <v>609</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J4" s="7">
         <v>21</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K4" s="7">
         <v>16453</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L4" s="7">
         <v>21638</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M4" s="7">
         <v>25508</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N4" s="7">
         <v>20329</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O4" s="7">
         <v>0</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P4" s="7">
         <v>6054</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="9">
         <v>92.183999999999997</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="9">
         <v>84</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="9">
         <v>110208</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G5" s="9">
         <v>108483</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H5" s="9">
         <v>15813</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I5" s="9">
         <v>1219</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J5" s="9">
         <v>16</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K5" s="9">
         <v>23994</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L5" s="9">
         <v>39798</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M5" s="9">
         <v>79792</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N5" s="9">
         <v>63989</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O5" s="9">
         <v>0</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P5" s="9">
         <v>22338</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D6" s="10">
         <v>99.19</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="10">
         <v>100</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F6" s="10">
         <v>49987</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G6" s="10">
         <v>50048</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H6" s="10">
         <v>39884</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I6" s="10">
         <v>273</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J6" s="10">
         <v>20</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K6" s="10">
         <v>1</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L6" s="10">
         <v>39842</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M6" s="10">
         <v>10173</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N6" s="10">
         <v>50048</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O6" s="10">
         <v>0</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P6" s="10">
         <v>71817</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D7" s="5">
         <v>97.11</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E7" s="5">
         <v>88</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F7" s="5">
         <v>45765</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G7" s="5">
         <v>48613</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H7" s="5">
         <v>12907</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I7" s="5">
         <v>366</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J7" s="5">
         <v>7</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K7" s="5">
         <v>26986</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L7" s="5">
         <v>39889</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M7" s="5">
         <v>33612</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N7" s="5">
         <v>46514</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O7" s="5">
         <v>0</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P7" s="5">
         <v>21762</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="9">
         <v>92.126999999999995</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="9">
         <v>84</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="9">
         <v>110067</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="9">
         <v>108483</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H8" s="9">
         <v>15813</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I8" s="9">
         <v>1219</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J8" s="9">
         <v>17</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K8" s="9">
         <v>24000</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L8" s="9">
         <v>39795</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M8" s="9">
         <v>79792</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N8" s="9">
         <v>63989</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O8" s="9">
         <v>0</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P8" s="9">
         <v>22280</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="5">
         <v>97.11</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="5">
         <v>86</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="5">
         <v>50292</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G9" s="5">
         <v>48613</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H9" s="5">
         <v>12907</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I9" s="5">
         <v>366</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J9" s="5">
         <v>7</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K9" s="5">
         <v>27952</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L9" s="5">
         <v>40855</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M9" s="5">
         <v>33612</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N9" s="5">
         <v>46514</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O9" s="5">
         <v>0</v>
       </c>
-      <c r="P8" s="6">
-        <v>21762</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="7">
-        <v>97.11</v>
-      </c>
-      <c r="E9" s="7">
-        <v>86</v>
-      </c>
-      <c r="F9" s="7">
-        <v>50373</v>
-      </c>
-      <c r="G9" s="7">
-        <v>48613</v>
-      </c>
-      <c r="H9" s="7">
-        <v>12907</v>
-      </c>
-      <c r="I9" s="7">
-        <v>366</v>
-      </c>
-      <c r="J9" s="7">
-        <v>7</v>
-      </c>
-      <c r="K9" s="7">
-        <v>27950</v>
-      </c>
-      <c r="L9" s="7">
-        <v>40853</v>
-      </c>
-      <c r="M9" s="7">
-        <v>33612</v>
-      </c>
-      <c r="N9" s="7">
-        <v>46514</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
+      <c r="P9" s="5">
         <v>21762</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2">
-        <v>92.100999999999999</v>
-      </c>
-      <c r="E10" s="2">
-        <v>84</v>
-      </c>
-      <c r="F10" s="2">
-        <v>110016</v>
-      </c>
-      <c r="G10" s="2">
-        <v>108483</v>
-      </c>
-      <c r="H10" s="2">
-        <v>15813</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1214</v>
-      </c>
-      <c r="J10" s="2">
-        <v>25</v>
-      </c>
-      <c r="K10" s="2">
-        <v>24000</v>
-      </c>
-      <c r="L10" s="2">
-        <v>39786</v>
-      </c>
-      <c r="M10" s="2">
-        <v>79792</v>
-      </c>
-      <c r="N10" s="2">
-        <v>63989</v>
-      </c>
-      <c r="O10" s="2">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5">
+        <v>97.11</v>
+      </c>
+      <c r="E10" s="5">
+        <v>86</v>
+      </c>
+      <c r="F10" s="5">
+        <v>50373</v>
+      </c>
+      <c r="G10" s="5">
+        <v>48613</v>
+      </c>
+      <c r="H10" s="5">
+        <v>12907</v>
+      </c>
+      <c r="I10" s="5">
+        <v>366</v>
+      </c>
+      <c r="J10" s="5">
+        <v>7</v>
+      </c>
+      <c r="K10" s="5">
+        <v>27950</v>
+      </c>
+      <c r="L10" s="5">
+        <v>40853</v>
+      </c>
+      <c r="M10" s="5">
+        <v>33612</v>
+      </c>
+      <c r="N10" s="5">
+        <v>46514</v>
+      </c>
+      <c r="O10" s="5">
         <v>0</v>
       </c>
-      <c r="P10" s="2">
-        <v>22249</v>
+      <c r="P10" s="5">
+        <v>21762</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="9">
+        <v>92.100999999999999</v>
+      </c>
+      <c r="E11" s="9">
+        <v>84</v>
+      </c>
+      <c r="F11" s="9">
+        <v>110016</v>
+      </c>
+      <c r="G11" s="9">
+        <v>108483</v>
+      </c>
+      <c r="H11" s="9">
+        <v>15813</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1214</v>
+      </c>
+      <c r="J11" s="9">
+        <v>25</v>
+      </c>
+      <c r="K11" s="9">
+        <v>24000</v>
+      </c>
+      <c r="L11" s="9">
+        <v>39786</v>
+      </c>
+      <c r="M11" s="9">
+        <v>79792</v>
+      </c>
+      <c r="N11" s="9">
+        <v>63989</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9">
+        <v>22249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D12" s="10">
         <v>99.180999999999997</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="10">
         <v>100</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="10">
         <v>99805</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G12" s="10">
         <v>50048</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H12" s="10">
         <v>50059</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I12" s="10">
         <v>352</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J12" s="10">
         <v>27</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K12" s="10">
         <v>39840</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L12" s="10">
         <v>89851</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M12" s="10">
         <v>1</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N12" s="10">
         <v>50048</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O12" s="10">
         <v>0</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P12" s="10">
         <v>90117</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D13" s="8">
         <v>98.233000000000004</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E13" s="8">
         <v>92</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F13" s="8">
         <v>48956</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G13" s="8">
         <v>51012</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H13" s="8">
         <v>16128</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I13" s="8">
         <v>276</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J13" s="8">
         <v>7</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K13" s="8">
         <v>26097</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L13" s="8">
         <v>42217</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M13" s="8">
         <v>28629</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N13" s="8">
         <v>12504</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O13" s="8">
         <v>0</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P13" s="8">
         <v>28195</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D14" s="11">
         <v>97.153999999999996</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="11">
         <v>99</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="11">
         <v>15411</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="11">
         <v>14927</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H14" s="11">
         <v>7626</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I14" s="11">
         <v>204</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J14" s="11">
         <v>11</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K14" s="11">
         <v>7791</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L14" s="11">
         <v>15411</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M14" s="11">
         <v>19</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N14" s="11">
         <v>7636</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O14" s="11">
         <v>0</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P14" s="11">
         <v>12868</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D15" s="7">
         <v>87.76</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="7">
         <v>50</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F15" s="7">
         <v>46660</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="7">
         <v>47647</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H15" s="7">
         <v>5196</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I15" s="7">
         <v>609</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J15" s="7">
         <v>22</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K15" s="7">
         <v>16157</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L15" s="7">
         <v>21341</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M15" s="7">
         <v>25508</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N15" s="7">
         <v>20329</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O15" s="7">
         <v>0</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P15" s="7">
         <v>6047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:P14">
-    <sortCondition ref="A1:A14"/>
-    <sortCondition descending="1" ref="P1:P14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P15">
+    <sortCondition ref="A2:A15"/>
+    <sortCondition descending="1" ref="P2:P15"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
